--- a/biology/Botanique/Ravageurs_du_maïs/Ravageurs_du_maïs.xlsx
+++ b/biology/Botanique/Ravageurs_du_maïs/Ravageurs_du_maïs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ravageurs_du_ma%C3%AFs</t>
+          <t>Ravageurs_du_maïs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive des ravageurs du maïs cultivé (Zea mais)
-Les ravageurs du maïs sont très nombreux, en particulier les insectes. On estime ainsi à une centaine le nombre d'espèces d'insectes ayant une importance notable pour la production du maïs aux États-Unis[1]. Ces espèces se distinguent par leur répartition, qui peut être cosmopolite ou limitée à un continent ou une région plus petite, mais aussi par les dommages causés aux cultures ou aux grains entreposés. Ces dégâts peuvent être directs, les ravageurs ou leurs larves se nourrissant aux dépens de la plante, ou indirects lorsqu'ils jouent le rôle de vecteur pour la transmission de virus ou de bactéries.
+Les ravageurs du maïs sont très nombreux, en particulier les insectes. On estime ainsi à une centaine le nombre d'espèces d'insectes ayant une importance notable pour la production du maïs aux États-Unis. Ces espèces se distinguent par leur répartition, qui peut être cosmopolite ou limitée à un continent ou une région plus petite, mais aussi par les dommages causés aux cultures ou aux grains entreposés. Ces dégâts peuvent être directs, les ravageurs ou leurs larves se nourrissant aux dépens de la plante, ou indirects lorsqu'ils jouent le rôle de vecteur pour la transmission de virus ou de bactéries.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ravageurs_du_ma%C3%AFs</t>
+          <t>Ravageurs_du_maïs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,55 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coléoptères
-Altise du maïs (Chaetocnema pulicaria)
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Altise du maïs (Chaetocnema pulicaria)
 Carabe du maïs (Stenolophus lecontei)
 Carpophilus lugubris
 Chrysomèle des racines du maïs (Diabrotica virgifera et  Diabrotica barberi)
 Grand capucin du maïs (Prostephanus truncatus)
 Hanneton (Melolontha melolontha)
-Ver  fil-de-fer (ou larve de taupin)
-Lépidoptères
-Légionnaire d'automne (Spodoptera frugiperda)
+Ver  fil-de-fer (ou larve de taupin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_maïs</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_ma%C3%AFs</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Légionnaire d'automne (Spodoptera frugiperda)
 Légionnaire uniponctuée (Pseudaletia unipuncta)
 Foreur africain du maïs (Busseola fusca)
 Foreur des épis de maïs (Mussidia nigrivenella)
@@ -537,46 +588,7 @@
 Noctuelle baignée, noctuelle ipsilon ou ver-gris noir  (Agrotis ipsilon)
 Pyrale du maïs (Ostrinia nubilalis)
 Ver de l'épi du maïs (Helicoverpa zea)
-Ver-gris occidental du haricot (Striacosta albicosta)
-Diptères
-Mouche des plantules de maïs (Geomyza tripunctata)
-Mouche grise des semis (Delia platura)
-Oscinie de l'avoine (Oscinella frit).
-Tipule des prairies (Tipula paludosa)
-Hémiptères
-Puceron des épis de céréales (Sitobion avenae)
-Puceron du maïs (Rhopalosiphum maidis)
-Puceron du merisier à grappe (Rhopalosiphum padi)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ravageurs_du_ma%C3%AFs</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_ma%C3%AFs</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Arachnides</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tétranyque tisserand (Tetranychus urticae)</t>
+Ver-gris occidental du haricot (Striacosta albicosta)</t>
         </is>
       </c>
     </row>
@@ -586,7 +598,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ravageurs_du_ma%C3%AFs</t>
+          <t>Ravageurs_du_maïs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,10 +613,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Mouche des plantules de maïs (Geomyza tripunctata)
+Mouche grise des semis (Delia platura)
+Oscinie de l'avoine (Oscinella frit).
+Tipule des prairies (Tipula paludosa)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_maïs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_ma%C3%AFs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Puceron des épis de céréales (Sitobion avenae)
+Puceron du maïs (Rhopalosiphum maidis)
+Puceron du merisier à grappe (Rhopalosiphum padi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_maïs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_ma%C3%AFs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Arachnides</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Tétranyque tisserand (Tetranychus urticae)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_maïs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_ma%C3%AFs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Nématode de l'avoine (Heterodera avenae)</t>
         </is>
